--- a/DATA/reactor/Mol_Reactor.xlsx
+++ b/DATA/reactor/Mol_Reactor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models_In_Python\Work_Model v2.0\DATA\reactor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models_In_Python\Work_Model v4.0\DATA\reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8EEC22-3F1D-448C-828D-88933A1EC330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41883557-F0E0-4560-BF3C-83AE99AC1456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="615" windowWidth="12300" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,31 +30,31 @@
     <t>№</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Температура вход</t>
-  </si>
-  <si>
-    <t>Температура выход</t>
-  </si>
-  <si>
-    <t>Давление вход</t>
-  </si>
-  <si>
-    <t>Давление выход</t>
-  </si>
-  <si>
-    <t>Объем</t>
-  </si>
-  <si>
-    <t>Кол-во шагов</t>
-  </si>
-  <si>
-    <t>Мольный расход</t>
-  </si>
-  <si>
     <t>Reactor</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>temp_in</t>
+  </si>
+  <si>
+    <t>temp_out</t>
+  </si>
+  <si>
+    <t>press_in</t>
+  </si>
+  <si>
+    <t>press_out</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>molar_flow_in</t>
   </si>
 </sst>
 </file>
@@ -379,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,28 +401,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>810</v>

--- a/DATA/reactor/Mol_Reactor.xlsx
+++ b/DATA/reactor/Mol_Reactor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models_In_Python\Work_Model v4.0\DATA\reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41883557-F0E0-4560-BF3C-83AE99AC1456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE2E1A-7936-4590-A880-55AAD29E0E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>№</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>steps</t>
-  </si>
-  <si>
-    <t>molar_flow_in</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,9 +418,6 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -450,9 +444,7 @@
       <c r="H2" s="2">
         <v>10000</v>
       </c>
-      <c r="I2" s="1">
-        <v>10</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
